--- a/src/test/java/resources/SabanTestData.xlsx
+++ b/src/test/java/resources/SabanTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16095" yWindow="45" windowWidth="17580" windowHeight="9825"/>
+    <workbookView xWindow="13650" yWindow="45" windowWidth="17580" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="US_01_TestData" sheetId="4" r:id="rId1"/>
@@ -59,12 +59,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>saban04.new@azak.com</t>
-  </si>
-  <si>
-    <t>saban04_new</t>
-  </si>
-  <si>
     <t>username REGISTERED</t>
   </si>
   <si>
@@ -74,12 +68,6 @@
     <t>password REGISTERED</t>
   </si>
   <si>
-    <t>asaban04_new</t>
-  </si>
-  <si>
-    <t>asaban04.new@azak.com</t>
-  </si>
-  <si>
     <t>saban99</t>
   </si>
   <si>
@@ -90,6 +78,18 @@
   </si>
   <si>
     <t>saban05@azak.com</t>
+  </si>
+  <si>
+    <t>saban05.new@azak.com</t>
+  </si>
+  <si>
+    <t>saban99.new@azak.com</t>
+  </si>
+  <si>
+    <t>saban99.new</t>
+  </si>
+  <si>
+    <t>saban05.new</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -527,10 +527,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -572,10 +572,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -652,12 +652,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -669,15 +669,15 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
